--- a/Hostel_Management/Attendance/AttendanceStudent.xlsx
+++ b/Hostel_Management/Attendance/AttendanceStudent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,12 +466,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10-11-2024</t>
+          <t>11-11-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11:35:04</t>
+          <t>22:45:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>hari</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11-11-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22:45:32</t>
         </is>
       </c>
     </row>
